--- a/Result/SoftAttentionResult based Paper.xlsx
+++ b/Result/SoftAttentionResult based Paper.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Reference Paper\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F3D14-DB9B-4203-A0E9-730694394C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90150618-137B-4F04-B488-3509BF0B0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="4770" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>DIS</t>
   </si>
@@ -64,15 +65,6 @@
     <t>VASC</t>
   </si>
   <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>W Avg</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
     <t>InceptionResnet</t>
   </si>
   <si>
@@ -83,19 +75,34 @@
   </si>
   <si>
     <t>Resnet</t>
+  </si>
+  <si>
+    <t>ROC AUC Score</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +125,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,55 +416,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -464,26 +518,33 @@
       <c r="E3">
         <v>0.67</v>
       </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
       <c r="G3">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I3">
         <v>0.98099999999999998</v>
       </c>
-      <c r="H3">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="I3">
-        <v>0.96399999999999997</v>
-      </c>
       <c r="J3">
-        <v>0.98099999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="K3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+      <c r="L3">
+        <v>0.52</v>
+      </c>
+      <c r="M3">
+        <v>0.61</v>
+      </c>
+      <c r="N3">
+        <v>0.43</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,26 +560,33 @@
       <c r="E4">
         <v>0.88</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.996</v>
+      </c>
+      <c r="J4">
+        <v>0.99</v>
+      </c>
+      <c r="K4">
         <v>0.88</v>
       </c>
-      <c r="G4">
-        <v>0.998</v>
-      </c>
-      <c r="H4">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="J4">
-        <v>0.996</v>
-      </c>
-      <c r="K4">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0.77</v>
+      </c>
+      <c r="M4">
+        <v>0.81</v>
+      </c>
+      <c r="N4">
+        <v>0.85</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -534,26 +602,33 @@
       <c r="E5">
         <v>0.67</v>
       </c>
-      <c r="F5">
-        <v>0.52</v>
-      </c>
       <c r="G5">
-        <v>0.98199999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I5">
-        <v>0.9</v>
-      </c>
       <c r="J5">
-        <v>0.96399999999999997</v>
+        <v>0.91</v>
       </c>
       <c r="K5">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+      <c r="L5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.44</v>
+      </c>
+      <c r="N5">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -569,26 +644,33 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.33</v>
-      </c>
       <c r="G6">
-        <v>0.98199999999999998</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="H6">
-        <v>0.92100000000000004</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="I6">
-        <v>0.80900000000000005</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="J6">
-        <v>0.97099999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="K6">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.44</v>
+      </c>
+      <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -604,26 +686,33 @@
       <c r="E7">
         <v>0.73</v>
       </c>
-      <c r="F7">
-        <v>0.54</v>
-      </c>
       <c r="G7">
-        <v>0.97399999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H7">
-        <v>0.97599999999999998</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="I7">
-        <v>0.95599999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="J7">
-        <v>0.97299999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="K7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+      <c r="L7">
+        <v>0.71</v>
+      </c>
+      <c r="M7">
+        <v>0.68</v>
+      </c>
+      <c r="N7">
+        <v>0.47</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -639,26 +728,33 @@
       <c r="E8">
         <v>0.95</v>
       </c>
-      <c r="F8">
-        <v>0.93</v>
-      </c>
       <c r="G8">
-        <v>0.98399999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H8">
-        <v>0.97599999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="I8">
-        <v>0.95099999999999996</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="J8">
-        <v>0.97899999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="K8">
+        <v>0.98</v>
+      </c>
+      <c r="L8">
+        <v>0.97</v>
+      </c>
+      <c r="M8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.98</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -674,11 +770,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.82</v>
-      </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="H9">
         <v>0.999</v>
@@ -687,83 +780,111 @@
         <v>0.999</v>
       </c>
       <c r="J9">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="K9">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.89</v>
-      </c>
-      <c r="C10">
-        <v>0.82</v>
-      </c>
-      <c r="D10">
-        <v>0.69</v>
-      </c>
-      <c r="E10">
-        <v>0.84</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-      <c r="G10">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="I10">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="J10">
-        <v>0.98</v>
-      </c>
-      <c r="K10">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.93</v>
-      </c>
-      <c r="C11">
-        <v>0.9</v>
-      </c>
-      <c r="D11">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.91</v>
-      </c>
-      <c r="F11">
-        <v>0.8</v>
-      </c>
-      <c r="G11">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="I11">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="J11">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="K11">
-        <v>0.95699999999999996</v>
-      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Result/SoftAttentionResult based Paper.xlsx
+++ b/Result/SoftAttentionResult based Paper.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitCloneProject\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90150618-137B-4F04-B488-3509BF0B0C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D22EF7-C798-45D6-9987-B520AC2BF06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -419,7 +417,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,8 +433,7 @@
     <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -797,6 +794,22 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>_xlfn.STDEV.P(K3:K9)</f>
+        <v>0.27544398297131523</v>
+      </c>
+      <c r="L10">
+        <f>_xlfn.STDEV.P(L3:L9)</f>
+        <v>0.18954295189282272</v>
+      </c>
+      <c r="M10">
+        <f>_xlfn.STDEV.P(M3:M9)</f>
+        <v>0.1918332609325088</v>
+      </c>
+      <c r="N10">
+        <f>_xlfn.STDEV.P(N3:N9)</f>
+        <v>0.20907961573115066</v>
+      </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/Result/SoftAttentionResult based Paper.xlsx
+++ b/Result/SoftAttentionResult based Paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitCloneProject\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D22EF7-C798-45D6-9987-B520AC2BF06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27631160-F16E-4638-AD1C-F3D93056D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>DIS</t>
   </si>
@@ -82,13 +82,31 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>ResNet50+SA</t>
+  </si>
+  <si>
+    <t>DenseNet</t>
+  </si>
+  <si>
+    <t>Vgg16+SA</t>
+  </si>
+  <si>
+    <t>F1-score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +120,33 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,11 +154,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -132,6 +191,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,477 +506,716 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>0.92</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>0.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>0.67</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>0.96699999999999997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>0.97</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="8">
         <v>0.52</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="8">
         <v>0.52</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="8">
         <v>0.61</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="8">
         <v>0.43</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>0.88</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>0.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>0.62</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>0.88</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>0.99399999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>0.996</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>0.99</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="8">
         <v>0.88</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="8">
         <v>0.77</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="8">
         <v>0.81</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="8">
         <v>0.85</v>
       </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>0.72</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>0.73</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>0.63</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>0.67</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>0.9</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>0.96399999999999997</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>0.91</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="8">
         <v>0.83</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="8">
         <v>0.44</v>
       </c>
-      <c r="N5">
+      <c r="O5" s="8">
         <v>0.7</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>0.80900000000000005</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>0.97099999999999997</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>0.94</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="8">
         <v>0.17</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="8">
         <v>0.5</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="8">
         <v>0.44</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="8">
         <v>0.5</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>0.67</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>0.53</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>0.43</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>0.73</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>0.95599999999999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>0.97299999999999998</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>0.95</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="8">
         <v>0.65</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="8">
         <v>0.71</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="8">
         <v>0.68</v>
       </c>
-      <c r="N7">
+      <c r="O7" s="8">
         <v>0.47</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>0.97</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>0.95</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>0.95</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>0.95</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>0.97599999999999998</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>0.95099999999999996</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>0.97899999999999998</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>0.95</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="8">
         <v>0.98</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="8">
         <v>0.97</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="8">
         <v>0.95</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="8">
         <v>0.98</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>0.83</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>0.999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>0.999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>0.999</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>0.99</v>
       </c>
-      <c r="K9">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="8">
         <v>0.9</v>
       </c>
-      <c r="N9">
+      <c r="O9" s="8">
         <v>0.9</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K10">
-        <f>_xlfn.STDEV.P(K3:K9)</f>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <f>AVERAGE(B3:B9)</f>
+        <v>0.89142857142857135</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:E10" si="0">AVERAGE(C3:C9)</f>
+        <v>0.82285714285714295</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10" si="1">AVERAGE(G3:G9)</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10" si="2">AVERAGE(H3:H9)</f>
+        <v>0.93757142857142839</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10" si="3">AVERAGE(I3:I9)</f>
+        <v>0.98042857142857132</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" ref="J10" si="4">AVERAGE(J3:J9)</f>
+        <v>0.95714285714285718</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="5">AVERAGE(L3:L9)</f>
+        <v>0.71857142857142853</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10" si="6">AVERAGE(M3:M9)</f>
+        <v>0.72142857142857142</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10" si="7">AVERAGE(N3:N9)</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" ref="O10" si="8">AVERAGE(O3:O9)</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" ref="B11:J11" si="9">_xlfn.STDEV.P(B3:B9)</f>
+        <v>0.13097748677088178</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="9"/>
+        <v>0.14732997810689993</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="9"/>
+        <v>0.19856628975878929</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="9"/>
+        <v>0.13874069191061678</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="9"/>
+        <v>2.3688454089341848E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="9"/>
+        <v>5.9868563520091081E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="9"/>
+        <v>1.1974462622683368E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="9"/>
+        <v>2.6572964625340388E-2</v>
+      </c>
+      <c r="L11" s="8">
+        <f>_xlfn.STDEV.P(L3:L9)</f>
         <v>0.27544398297131523</v>
       </c>
-      <c r="L10">
-        <f>_xlfn.STDEV.P(L3:L9)</f>
+      <c r="M11" s="8">
+        <f>_xlfn.STDEV.P(M3:M9)</f>
         <v>0.18954295189282272</v>
       </c>
-      <c r="M10">
-        <f>_xlfn.STDEV.P(M3:M9)</f>
+      <c r="N11" s="8">
+        <f>_xlfn.STDEV.P(N3:N9)</f>
         <v>0.1918332609325088</v>
       </c>
-      <c r="N10">
-        <f>_xlfn.STDEV.P(N3:N9)</f>
+      <c r="O11" s="8">
+        <f>_xlfn.STDEV.P(O3:O9)</f>
         <v>0.20907961573115066</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="G15" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="G16" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="7">
+        <f>AVERAGE(G15:G21)</f>
+        <v>0.75285714285714278</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:J22" si="10">AVERAGE(H15:H21)</f>
+        <v>0.74857142857142855</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="10"/>
+        <v>0.67142857142857149</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="10"/>
+        <v>0.74714285714285722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="5">
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
